--- a/src/DbTool/template.xlsx
+++ b/src/DbTool/template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -53,13 +53,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="164" formatCode="0_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -222,14 +222,14 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -244,7 +244,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -264,7 +264,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -545,22 +545,22 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="10.75" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.75" customWidth="1"/>
-    <col min="9" max="9" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18">
       <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
@@ -571,7 +571,7 @@
       <c r="F1" s="13"/>
       <c r="G1" s="14"/>
     </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="33">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -594,7 +594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="16.5">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -603,7 +603,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="16.5">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
@@ -612,7 +612,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="16.5">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
@@ -621,7 +621,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="16.5">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
@@ -630,7 +630,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="16.5">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
@@ -639,7 +639,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="16.5">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
@@ -648,7 +648,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="16.5">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
@@ -657,7 +657,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="16.5">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
@@ -666,7 +666,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="16.5">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
@@ -675,7 +675,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="16.5">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
@@ -684,7 +684,7 @@
       <c r="F12" s="9"/>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="16.5">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
@@ -693,7 +693,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="16.5">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
@@ -702,7 +702,7 @@
       <c r="F14" s="9"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="16.5">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
@@ -711,7 +711,7 @@
       <c r="F15" s="9"/>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="16.5">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
@@ -726,7 +726,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E65536">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E103:E65536">
       <formula1>"INT,BIGINT,FLOAT,REAL,MONEY,BIT,NVARCHAR,VARCHAR,DATETIME,UNIQUEIDENTIFIER"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:D65536">
@@ -734,5 +734,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>